--- a/Agricultura/4.9.xlsx
+++ b/Agricultura/4.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{391DCAF8-A35A-46CC-AF62-EB6874BB70C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB24500-BE37-4E5C-856E-D54DEFAEA151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6B93C76C-544C-4716-8230-5702D06E518B}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="96">
   <si>
     <t>2019-2020</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>Paula Rojas</t>
+  </si>
+  <si>
+    <t>Otras industriales</t>
+  </si>
+  <si>
+    <t>Otras Legumbres</t>
   </si>
 </sst>
 </file>
@@ -795,7 +801,7 @@
   <dimension ref="A1:X309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,14 +1502,14 @@
       <c r="F10">
         <v>100111</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>20</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
+        <v>100111011</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
       </c>
       <c r="J10">
         <v>1493</v>
@@ -1792,14 +1798,14 @@
       <c r="F14">
         <v>100111</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>20</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
+        <v>100111012</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2236,14 +2242,14 @@
       <c r="F20">
         <v>100113</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>48</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
+        <v>100113006</v>
+      </c>
+      <c r="I20" t="s">
+        <v>94</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2754,14 +2760,14 @@
       <c r="F27">
         <v>100110</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>41</v>
       </c>
       <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
+        <v>100110007</v>
+      </c>
+      <c r="I27" t="s">
+        <v>95</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3568,14 +3574,14 @@
       <c r="F38">
         <v>100111</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>20</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
+        <v>100111011</v>
+      </c>
+      <c r="I38" t="s">
+        <v>40</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3864,14 +3870,14 @@
       <c r="F42">
         <v>100111</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>20</v>
       </c>
       <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
+        <v>100111012</v>
+      </c>
+      <c r="I42" t="s">
+        <v>39</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -4308,14 +4314,14 @@
       <c r="F48">
         <v>100113</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>48</v>
       </c>
       <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
+        <v>100113006</v>
+      </c>
+      <c r="I48" t="s">
+        <v>94</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -4826,14 +4832,14 @@
       <c r="F55">
         <v>100110</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" t="s">
         <v>41</v>
       </c>
       <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
+        <v>100110007</v>
+      </c>
+      <c r="I55" t="s">
+        <v>95</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -5640,14 +5646,14 @@
       <c r="F66">
         <v>100111</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" t="s">
         <v>20</v>
       </c>
       <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0</v>
+        <v>100111011</v>
+      </c>
+      <c r="I66" t="s">
+        <v>40</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -5936,14 +5942,14 @@
       <c r="F70">
         <v>100111</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" t="s">
         <v>20</v>
       </c>
       <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
+        <v>100111012</v>
+      </c>
+      <c r="I70" t="s">
+        <v>39</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -6380,14 +6386,14 @@
       <c r="F76">
         <v>100113</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" t="s">
         <v>48</v>
       </c>
       <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
+        <v>100113006</v>
+      </c>
+      <c r="I76" t="s">
+        <v>94</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -6898,14 +6904,14 @@
       <c r="F83">
         <v>100110</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" t="s">
         <v>41</v>
       </c>
       <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" s="1">
-        <v>0</v>
+        <v>100110007</v>
+      </c>
+      <c r="I83" t="s">
+        <v>95</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -7712,14 +7718,14 @@
       <c r="F94">
         <v>100111</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" t="s">
         <v>20</v>
       </c>
       <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94" s="1">
-        <v>0</v>
+        <v>100111011</v>
+      </c>
+      <c r="I94" t="s">
+        <v>40</v>
       </c>
       <c r="J94">
         <v>37</v>
@@ -8008,14 +8014,14 @@
       <c r="F98">
         <v>100111</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" t="s">
         <v>20</v>
       </c>
       <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98" s="1">
-        <v>0</v>
+        <v>100111012</v>
+      </c>
+      <c r="I98" t="s">
+        <v>39</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -8452,14 +8458,14 @@
       <c r="F104">
         <v>100113</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" t="s">
         <v>48</v>
       </c>
       <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104" s="1">
-        <v>0</v>
+        <v>100113006</v>
+      </c>
+      <c r="I104" t="s">
+        <v>94</v>
       </c>
       <c r="J104">
         <v>189</v>
@@ -8970,14 +8976,14 @@
       <c r="F111">
         <v>100110</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" t="s">
         <v>41</v>
       </c>
       <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111" s="1">
-        <v>0</v>
+        <v>100110007</v>
+      </c>
+      <c r="I111" t="s">
+        <v>95</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -9784,14 +9790,14 @@
       <c r="F122">
         <v>100111</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" t="s">
         <v>20</v>
       </c>
       <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122" s="1">
-        <v>0</v>
+        <v>100111011</v>
+      </c>
+      <c r="I122" t="s">
+        <v>40</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -10080,14 +10086,14 @@
       <c r="F126">
         <v>100111</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G126" t="s">
         <v>20</v>
       </c>
       <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126" s="1">
-        <v>0</v>
+        <v>100111012</v>
+      </c>
+      <c r="I126" t="s">
+        <v>39</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -10524,14 +10530,14 @@
       <c r="F132">
         <v>100113</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G132" t="s">
         <v>48</v>
       </c>
       <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132" s="1">
-        <v>0</v>
+        <v>100113006</v>
+      </c>
+      <c r="I132" t="s">
+        <v>94</v>
       </c>
       <c r="J132">
         <v>595</v>
@@ -11042,14 +11048,14 @@
       <c r="F139">
         <v>100110</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G139" t="s">
         <v>41</v>
       </c>
       <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139" s="1">
-        <v>0</v>
+        <v>100110007</v>
+      </c>
+      <c r="I139" t="s">
+        <v>95</v>
       </c>
       <c r="J139">
         <v>241</v>
@@ -11856,14 +11862,14 @@
       <c r="F150">
         <v>100111</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G150" t="s">
         <v>20</v>
       </c>
       <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150" s="1">
-        <v>0</v>
+        <v>100111011</v>
+      </c>
+      <c r="I150" t="s">
+        <v>40</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -12152,14 +12158,14 @@
       <c r="F154">
         <v>100111</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G154" t="s">
         <v>20</v>
       </c>
       <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154" s="1">
-        <v>0</v>
+        <v>100111012</v>
+      </c>
+      <c r="I154" t="s">
+        <v>39</v>
       </c>
       <c r="J154">
         <v>1157</v>
@@ -12596,14 +12602,14 @@
       <c r="F160">
         <v>100113</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G160" t="s">
         <v>48</v>
       </c>
       <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160" s="1">
-        <v>0</v>
+        <v>100113006</v>
+      </c>
+      <c r="I160" t="s">
+        <v>94</v>
       </c>
       <c r="J160">
         <v>359</v>
@@ -13114,14 +13120,14 @@
       <c r="F167">
         <v>100110</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G167" t="s">
         <v>41</v>
       </c>
       <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167" s="1">
-        <v>0</v>
+        <v>100110007</v>
+      </c>
+      <c r="I167" t="s">
+        <v>95</v>
       </c>
       <c r="J167">
         <v>29</v>
@@ -13928,14 +13934,14 @@
       <c r="F178">
         <v>100111</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="G178" t="s">
         <v>20</v>
       </c>
       <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178" s="1">
-        <v>0</v>
+        <v>100111011</v>
+      </c>
+      <c r="I178" t="s">
+        <v>40</v>
       </c>
       <c r="J178">
         <v>537</v>
@@ -14224,14 +14230,14 @@
       <c r="F182">
         <v>100111</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="G182" t="s">
         <v>20</v>
       </c>
       <c r="H182">
-        <v>0</v>
-      </c>
-      <c r="I182" s="1">
-        <v>0</v>
+        <v>100111012</v>
+      </c>
+      <c r="I182" t="s">
+        <v>39</v>
       </c>
       <c r="J182">
         <v>14850</v>
@@ -14668,14 +14674,14 @@
       <c r="F188">
         <v>100113</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="G188" t="s">
         <v>48</v>
       </c>
       <c r="H188">
-        <v>0</v>
-      </c>
-      <c r="I188" s="1">
-        <v>0</v>
+        <v>100113006</v>
+      </c>
+      <c r="I188" t="s">
+        <v>94</v>
       </c>
       <c r="J188">
         <v>127</v>
@@ -15186,14 +15192,14 @@
       <c r="F195">
         <v>100110</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="G195" t="s">
         <v>41</v>
       </c>
       <c r="H195">
-        <v>0</v>
-      </c>
-      <c r="I195" s="1">
-        <v>0</v>
+        <v>100110007</v>
+      </c>
+      <c r="I195" t="s">
+        <v>95</v>
       </c>
       <c r="J195">
         <v>437</v>
@@ -16000,14 +16006,14 @@
       <c r="F206">
         <v>100111</v>
       </c>
-      <c r="G206" s="1" t="s">
+      <c r="G206" t="s">
         <v>20</v>
       </c>
       <c r="H206">
-        <v>0</v>
-      </c>
-      <c r="I206" s="1">
-        <v>0</v>
+        <v>100111011</v>
+      </c>
+      <c r="I206" t="s">
+        <v>40</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -16296,14 +16302,14 @@
       <c r="F210">
         <v>100111</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="G210" t="s">
         <v>20</v>
       </c>
       <c r="H210">
-        <v>0</v>
-      </c>
-      <c r="I210" s="1">
-        <v>0</v>
+        <v>100111012</v>
+      </c>
+      <c r="I210" t="s">
+        <v>39</v>
       </c>
       <c r="J210">
         <v>743</v>
@@ -16740,14 +16746,14 @@
       <c r="F216">
         <v>100113</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="G216" t="s">
         <v>48</v>
       </c>
       <c r="H216">
-        <v>0</v>
-      </c>
-      <c r="I216" s="1">
-        <v>0</v>
+        <v>100113006</v>
+      </c>
+      <c r="I216" t="s">
+        <v>94</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -17258,14 +17264,14 @@
       <c r="F223">
         <v>100110</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="G223" t="s">
         <v>41</v>
       </c>
       <c r="H223">
-        <v>0</v>
-      </c>
-      <c r="I223" s="1">
-        <v>0</v>
+        <v>100110007</v>
+      </c>
+      <c r="I223" t="s">
+        <v>95</v>
       </c>
       <c r="J223">
         <v>0</v>
@@ -18072,14 +18078,14 @@
       <c r="F234">
         <v>100111</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="G234" t="s">
         <v>20</v>
       </c>
       <c r="H234">
-        <v>0</v>
-      </c>
-      <c r="I234" s="1">
-        <v>0</v>
+        <v>100111011</v>
+      </c>
+      <c r="I234" t="s">
+        <v>40</v>
       </c>
       <c r="J234">
         <v>0</v>
@@ -18368,14 +18374,14 @@
       <c r="F238">
         <v>100111</v>
       </c>
-      <c r="G238" s="1" t="s">
+      <c r="G238" t="s">
         <v>20</v>
       </c>
       <c r="H238">
-        <v>0</v>
-      </c>
-      <c r="I238" s="1">
-        <v>0</v>
+        <v>100111012</v>
+      </c>
+      <c r="I238" t="s">
+        <v>39</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -18812,14 +18818,14 @@
       <c r="F244">
         <v>100113</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="G244" t="s">
         <v>48</v>
       </c>
       <c r="H244">
-        <v>0</v>
-      </c>
-      <c r="I244" s="1">
-        <v>0</v>
+        <v>100113006</v>
+      </c>
+      <c r="I244" t="s">
+        <v>94</v>
       </c>
       <c r="J244">
         <v>0</v>
@@ -19330,14 +19336,14 @@
       <c r="F251">
         <v>100110</v>
       </c>
-      <c r="G251" s="1" t="s">
+      <c r="G251" t="s">
         <v>41</v>
       </c>
       <c r="H251">
-        <v>0</v>
-      </c>
-      <c r="I251" s="1">
-        <v>0</v>
+        <v>100110007</v>
+      </c>
+      <c r="I251" t="s">
+        <v>95</v>
       </c>
       <c r="J251">
         <v>0</v>
@@ -20144,14 +20150,14 @@
       <c r="F262">
         <v>100111</v>
       </c>
-      <c r="G262" s="1" t="s">
+      <c r="G262" t="s">
         <v>20</v>
       </c>
       <c r="H262">
-        <v>0</v>
-      </c>
-      <c r="I262" s="1">
-        <v>0</v>
+        <v>100111011</v>
+      </c>
+      <c r="I262" t="s">
+        <v>40</v>
       </c>
       <c r="J262">
         <v>0</v>
@@ -20440,14 +20446,14 @@
       <c r="F266">
         <v>100111</v>
       </c>
-      <c r="G266" s="1" t="s">
+      <c r="G266" t="s">
         <v>20</v>
       </c>
       <c r="H266">
-        <v>0</v>
-      </c>
-      <c r="I266" s="1">
-        <v>0</v>
+        <v>100111012</v>
+      </c>
+      <c r="I266" t="s">
+        <v>39</v>
       </c>
       <c r="J266">
         <v>925</v>
@@ -20884,14 +20890,14 @@
       <c r="F272">
         <v>100113</v>
       </c>
-      <c r="G272" s="1" t="s">
+      <c r="G272" t="s">
         <v>48</v>
       </c>
       <c r="H272">
-        <v>0</v>
-      </c>
-      <c r="I272" s="1">
-        <v>0</v>
+        <v>100113006</v>
+      </c>
+      <c r="I272" t="s">
+        <v>94</v>
       </c>
       <c r="J272">
         <v>0</v>
@@ -21402,14 +21408,14 @@
       <c r="F279">
         <v>100110</v>
       </c>
-      <c r="G279" s="1" t="s">
+      <c r="G279" t="s">
         <v>41</v>
       </c>
       <c r="H279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="1">
-        <v>0</v>
+        <v>100110007</v>
+      </c>
+      <c r="I279" t="s">
+        <v>95</v>
       </c>
       <c r="J279">
         <v>0</v>
@@ -22216,14 +22222,14 @@
       <c r="F290">
         <v>100111</v>
       </c>
-      <c r="G290" s="1" t="s">
+      <c r="G290" t="s">
         <v>20</v>
       </c>
       <c r="H290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="1">
-        <v>0</v>
+        <v>100111011</v>
+      </c>
+      <c r="I290" t="s">
+        <v>40</v>
       </c>
       <c r="J290">
         <v>51</v>
@@ -22512,14 +22518,14 @@
       <c r="F294">
         <v>100111</v>
       </c>
-      <c r="G294" s="1" t="s">
+      <c r="G294" t="s">
         <v>20</v>
       </c>
       <c r="H294">
-        <v>0</v>
-      </c>
-      <c r="I294" s="1">
-        <v>0</v>
+        <v>100111012</v>
+      </c>
+      <c r="I294" t="s">
+        <v>39</v>
       </c>
       <c r="J294">
         <v>698</v>
@@ -22956,14 +22962,14 @@
       <c r="F300">
         <v>100113</v>
       </c>
-      <c r="G300" s="1" t="s">
+      <c r="G300" t="s">
         <v>48</v>
       </c>
       <c r="H300">
-        <v>0</v>
-      </c>
-      <c r="I300" s="1">
-        <v>0</v>
+        <v>100113006</v>
+      </c>
+      <c r="I300" t="s">
+        <v>94</v>
       </c>
       <c r="J300">
         <v>0</v>
@@ -23474,14 +23480,14 @@
       <c r="F307">
         <v>100110</v>
       </c>
-      <c r="G307" s="1" t="s">
+      <c r="G307" t="s">
         <v>41</v>
       </c>
       <c r="H307">
-        <v>0</v>
-      </c>
-      <c r="I307" s="1">
-        <v>0</v>
+        <v>100110007</v>
+      </c>
+      <c r="I307" t="s">
+        <v>95</v>
       </c>
       <c r="J307">
         <v>514</v>

--- a/Agricultura/4.9.xlsx
+++ b/Agricultura/4.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB24500-BE37-4E5C-856E-D54DEFAEA151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD9EB7E-828C-4104-AA08-4BF886BDBD3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6B93C76C-544C-4716-8230-5702D06E518B}"/>
+    <workbookView minimized="1" xWindow="4875" yWindow="3390" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{6B93C76C-544C-4716-8230-5702D06E518B}"/>
   </bookViews>
   <sheets>
     <sheet name="Superficie cosechada" sheetId="4" r:id="rId1"/>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE9E161-A101-4436-AEC2-A5B9980D1BA9}">
   <dimension ref="A1:X309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23695,8 +23695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A893D3-0236-4681-8ADB-A61E5ABA1EFD}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Agricultura/4.9.xlsx
+++ b/Agricultura/4.9.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1008E019-5C35-4B62-88CC-F5AD7D68955B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D73686-0DD2-4A25-A44B-1C4DDB5029E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B93C76C-544C-4716-8230-5702D06E518B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{6B93C76C-544C-4716-8230-5702D06E518B}"/>
   </bookViews>
   <sheets>
     <sheet name="Superficie cosechada" sheetId="4" r:id="rId1"/>
     <sheet name="Tabla Auxiliar" sheetId="7" r:id="rId2"/>
+    <sheet name="Para Actualizar" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'Superficie cosechada'!$A$1:$Z$309</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="102">
   <si>
     <t>2019-2020</t>
   </si>
@@ -350,12 +351,21 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>https://www.ine.cl/estadisticas/economia/agricultura-agroindustria-y-pesca/cosecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente </t>
+  </si>
+  <si>
+    <t>INE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +377,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,16 +404,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B0FA34FB-55E8-4283-AEAA-661B79BFFFD9}"/>
   </cellStyles>
@@ -435,6 +456,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6E46E6-BAFC-445A-BE5E-8C26DBA511A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="768350" y="451540"/>
+          <a:ext cx="6553200" cy="3501292"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE9E161-A101-4436-AEC2-A5B9980D1BA9}">
   <dimension ref="A1:Z309"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+    <sheetView zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
@@ -25580,7 +25650,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25672,6 +25742,39 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F582DE3-88E0-430D-9A4B-1622E17637DD}">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="62.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9B0419BD-5375-4B2B-AB31-B4E6522EDB91}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Agricultura/4.9.xlsx
+++ b/Agricultura/4.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D73686-0DD2-4A25-A44B-1C4DDB5029E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B02114E-2D72-4077-817C-59F3FBC6A7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{6B93C76C-544C-4716-8230-5702D06E518B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B93C76C-544C-4716-8230-5702D06E518B}"/>
   </bookViews>
   <sheets>
     <sheet name="Superficie cosechada" sheetId="4" r:id="rId1"/>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE9E161-A101-4436-AEC2-A5B9980D1BA9}">
   <dimension ref="A1:Z309"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="C136" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25749,8 +25749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F582DE3-88E0-430D-9A4B-1622E17637DD}">
   <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Agricultura/4.9.xlsx
+++ b/Agricultura/4.9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B02114E-2D72-4077-817C-59F3FBC6A7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F46C54E-FE2F-4113-9B6E-53048E3C52BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B93C76C-544C-4716-8230-5702D06E518B}"/>
   </bookViews>
@@ -211,16 +211,7 @@
     <t>Lupino</t>
   </si>
   <si>
-    <t>Lupino amargo (grano seco)</t>
-  </si>
-  <si>
     <t>Otros lupinos (australiano y dulce)</t>
-  </si>
-  <si>
-    <t>Remolacha</t>
-  </si>
-  <si>
-    <t>Remolacha azucarera</t>
   </si>
   <si>
     <t>Tabaco</t>
@@ -260,9 +251,6 @@
   </si>
   <si>
     <t>Hortalizas</t>
-  </si>
-  <si>
-    <t>Remolacha (caña de azúcar)</t>
   </si>
   <si>
     <t>Id_auxiliar</t>
@@ -359,6 +347,18 @@
   </si>
   <si>
     <t>INE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remolacha azucarera </t>
+  </si>
+  <si>
+    <t>Remolacha azucarera  azucarera</t>
+  </si>
+  <si>
+    <t>Lupino amargo (grano seco)</t>
+  </si>
+  <si>
+    <t>Remolacha</t>
   </si>
 </sst>
 </file>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE9E161-A101-4436-AEC2-A5B9980D1BA9}">
   <dimension ref="A1:Z309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C136" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -909,7 +909,7 @@
     <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.81640625" customWidth="1"/>
     <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
@@ -925,31 +925,31 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>21</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2048,28 +2048,28 @@
         <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15">
         <v>100112</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I15">
         <v>100112010</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>51</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G17">
         <v>100113</v>
@@ -2229,7 +2229,7 @@
         <v>51</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18">
         <v>100113</v>
@@ -2309,7 +2309,7 @@
         <v>51</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>50</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1">
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G20">
         <v>100113</v>
@@ -2466,10 +2466,10 @@
         <v>100113006</v>
       </c>
       <c r="J20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" t="s">
         <v>94</v>
-      </c>
-      <c r="K20" t="s">
-        <v>98</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2549,7 +2549,7 @@
         <v>49</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E22" s="1">
         <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G22">
         <v>100113</v>
@@ -2626,10 +2626,10 @@
         <v>100113004</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2688,13 +2688,13 @@
         <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1">
         <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G23">
         <v>100113</v>
@@ -2706,10 +2706,10 @@
         <v>100113005</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2768,28 +2768,28 @@
         <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E24" s="1">
         <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G24">
         <v>100112</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I24">
         <v>100112020</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>44</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>43</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>100110007</v>
       </c>
       <c r="J27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>38</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>39</v>
       </c>
       <c r="K42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4288,28 +4288,28 @@
         <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G43">
         <v>100112</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I43">
         <v>100112010</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>51</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4454,7 +4454,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G45">
         <v>100113</v>
@@ -4469,7 +4469,7 @@
         <v>51</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>18</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46">
         <v>100113</v>
@@ -4549,7 +4549,7 @@
         <v>51</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4629,7 +4629,7 @@
         <v>50</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4688,13 +4688,13 @@
         <v>48</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E48" s="1">
         <v>17</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G48">
         <v>100113</v>
@@ -4706,10 +4706,10 @@
         <v>100113006</v>
       </c>
       <c r="J48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K48" t="s">
         <v>94</v>
-      </c>
-      <c r="K48" t="s">
-        <v>98</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>49</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4848,13 +4848,13 @@
         <v>48</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E50" s="1">
         <v>22</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G50">
         <v>100113</v>
@@ -4866,10 +4866,10 @@
         <v>100113004</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -4928,13 +4928,13 @@
         <v>48</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E51" s="1">
         <v>23</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G51">
         <v>100113</v>
@@ -4946,10 +4946,10 @@
         <v>100113005</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -5008,28 +5008,28 @@
         <v>48</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E52" s="1">
         <v>24</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G52">
         <v>100112</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I52">
         <v>100112020</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5109,7 +5109,7 @@
         <v>44</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>43</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>100110007</v>
       </c>
       <c r="J55" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>42</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>20</v>
@@ -5509,7 +5509,7 @@
         <v>38</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5562,7 +5562,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>20</v>
@@ -5589,7 +5589,7 @@
         <v>34</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>20</v>
@@ -5722,7 +5722,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>20</v>
@@ -5749,7 +5749,7 @@
         <v>31</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>20</v>
@@ -5882,7 +5882,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>20</v>
@@ -5962,7 +5962,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>20</v>
@@ -6042,7 +6042,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>20</v>
@@ -6069,7 +6069,7 @@
         <v>35</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>20</v>
@@ -6149,7 +6149,7 @@
         <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>20</v>
@@ -6282,7 +6282,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>20</v>
@@ -6362,7 +6362,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>20</v>
@@ -6442,7 +6442,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>20</v>
@@ -6469,7 +6469,7 @@
         <v>39</v>
       </c>
       <c r="K70" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6522,34 +6522,34 @@
         <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G71">
         <v>100112</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I71">
         <v>100112010</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6602,7 +6602,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>48</v>
@@ -6629,7 +6629,7 @@
         <v>51</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -6682,7 +6682,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>48</v>
@@ -6694,7 +6694,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G73">
         <v>100113</v>
@@ -6709,7 +6709,7 @@
         <v>51</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -6762,7 +6762,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>48</v>
@@ -6774,7 +6774,7 @@
         <v>18</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G74">
         <v>100113</v>
@@ -6789,7 +6789,7 @@
         <v>51</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -6842,7 +6842,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>48</v>
@@ -6869,7 +6869,7 @@
         <v>50</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -6922,19 +6922,19 @@
         <v>5</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E76" s="1">
         <v>17</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G76">
         <v>100113</v>
@@ -6946,10 +6946,10 @@
         <v>100113006</v>
       </c>
       <c r="J76" t="s">
+        <v>90</v>
+      </c>
+      <c r="K76" t="s">
         <v>94</v>
-      </c>
-      <c r="K76" t="s">
-        <v>98</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>48</v>
@@ -7029,7 +7029,7 @@
         <v>49</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -7082,19 +7082,19 @@
         <v>5</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E78" s="1">
         <v>22</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G78">
         <v>100113</v>
@@ -7106,10 +7106,10 @@
         <v>100113004</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -7162,19 +7162,19 @@
         <v>5</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E79" s="1">
         <v>23</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G79">
         <v>100113</v>
@@ -7186,10 +7186,10 @@
         <v>100113005</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -7242,34 +7242,34 @@
         <v>5</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E80" s="1">
         <v>24</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G80">
         <v>100112</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I80">
         <v>100112020</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>41</v>
@@ -7349,7 +7349,7 @@
         <v>44</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -7402,7 +7402,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>41</v>
@@ -7429,7 +7429,7 @@
         <v>43</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>5</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>41</v>
@@ -7506,10 +7506,10 @@
         <v>100110007</v>
       </c>
       <c r="J83" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>41</v>
@@ -7642,7 +7642,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>46</v>
@@ -7749,7 +7749,7 @@
         <v>38</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>31</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -8709,7 +8709,7 @@
         <v>39</v>
       </c>
       <c r="K98" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>48</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G99">
         <v>100112</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I99">
         <v>100112010</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -8869,7 +8869,7 @@
         <v>51</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -8934,7 +8934,7 @@
         <v>10</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G101">
         <v>100113</v>
@@ -8949,7 +8949,7 @@
         <v>51</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>18</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G102">
         <v>100113</v>
@@ -9029,7 +9029,7 @@
         <v>51</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -9168,13 +9168,13 @@
         <v>48</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E104" s="1">
         <v>17</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G104">
         <v>100113</v>
@@ -9186,7 +9186,7 @@
         <v>100113006</v>
       </c>
       <c r="J104" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K104">
         <v>208</v>
@@ -9269,7 +9269,7 @@
         <v>49</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -9328,13 +9328,13 @@
         <v>48</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E106" s="1">
         <v>22</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G106">
         <v>100113</v>
@@ -9346,10 +9346,10 @@
         <v>100113004</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -9408,13 +9408,13 @@
         <v>48</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E107" s="1">
         <v>23</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G107">
         <v>100113</v>
@@ -9426,7 +9426,7 @@
         <v>100113005</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K107" s="1">
         <v>882</v>
@@ -9488,25 +9488,25 @@
         <v>48</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E108" s="1">
         <v>24</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G108">
         <v>100112</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I108">
         <v>100112020</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K108" s="1">
         <v>3855</v>
@@ -9669,7 +9669,7 @@
         <v>43</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>100110007</v>
       </c>
       <c r="J111" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K111" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>7</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>20</v>
@@ -10042,7 +10042,7 @@
         <v>7</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>20</v>
@@ -10122,7 +10122,7 @@
         <v>7</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>20</v>
@@ -10202,7 +10202,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>20</v>
@@ -10282,7 +10282,7 @@
         <v>7</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>20</v>
@@ -10362,7 +10362,7 @@
         <v>7</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>20</v>
@@ -10442,7 +10442,7 @@
         <v>7</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>20</v>
@@ -10522,7 +10522,7 @@
         <v>7</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>20</v>
@@ -10602,7 +10602,7 @@
         <v>7</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>20</v>
@@ -10682,7 +10682,7 @@
         <v>7</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>20</v>
@@ -10762,7 +10762,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>20</v>
@@ -10842,7 +10842,7 @@
         <v>7</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>20</v>
@@ -10922,7 +10922,7 @@
         <v>7</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>20</v>
@@ -10949,7 +10949,7 @@
         <v>39</v>
       </c>
       <c r="K126" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -11002,34 +11002,34 @@
         <v>7</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G127">
         <v>100112</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I127">
         <v>100112010</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L127">
         <v>163</v>
@@ -11082,7 +11082,7 @@
         <v>7</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>48</v>
@@ -11109,7 +11109,7 @@
         <v>51</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>48</v>
@@ -11174,7 +11174,7 @@
         <v>10</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G129">
         <v>100113</v>
@@ -11189,7 +11189,7 @@
         <v>51</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -11242,7 +11242,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>48</v>
@@ -11254,7 +11254,7 @@
         <v>18</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G130">
         <v>100113</v>
@@ -11269,7 +11269,7 @@
         <v>51</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -11322,7 +11322,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>48</v>
@@ -11402,19 +11402,19 @@
         <v>7</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E132" s="1">
         <v>17</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G132">
         <v>100113</v>
@@ -11426,7 +11426,7 @@
         <v>100113006</v>
       </c>
       <c r="J132" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K132">
         <v>552</v>
@@ -11482,7 +11482,7 @@
         <v>7</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>48</v>
@@ -11509,7 +11509,7 @@
         <v>49</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L133">
         <v>71</v>
@@ -11562,19 +11562,19 @@
         <v>7</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E134" s="1">
         <v>22</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G134">
         <v>100113</v>
@@ -11586,7 +11586,7 @@
         <v>100113004</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="K134" s="1">
         <v>2641</v>
@@ -11642,19 +11642,19 @@
         <v>7</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E135" s="1">
         <v>23</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G135">
         <v>100113</v>
@@ -11666,7 +11666,7 @@
         <v>100113005</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K135" s="1">
         <v>377</v>
@@ -11722,31 +11722,31 @@
         <v>7</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E136" s="1">
         <v>24</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G136">
         <v>100112</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I136">
         <v>100112020</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K136" s="1">
         <v>3719</v>
@@ -11802,7 +11802,7 @@
         <v>7</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>41</v>
@@ -11882,7 +11882,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>41</v>
@@ -11962,7 +11962,7 @@
         <v>7</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>41</v>
@@ -11986,10 +11986,10 @@
         <v>100110007</v>
       </c>
       <c r="J139" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K139" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L139">
         <v>241</v>
@@ -12042,7 +12042,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>41</v>
@@ -12122,7 +12122,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>46</v>
@@ -12229,7 +12229,7 @@
         <v>38</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -13248,25 +13248,25 @@
         <v>48</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E155" s="1">
         <v>1</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G155">
         <v>100112</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I155">
         <v>100112010</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K155" s="1">
         <v>3409</v>
@@ -13414,7 +13414,7 @@
         <v>10</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G157">
         <v>100113</v>
@@ -13429,7 +13429,7 @@
         <v>51</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L157">
         <v>0</v>
@@ -13494,7 +13494,7 @@
         <v>18</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G158">
         <v>100113</v>
@@ -13648,13 +13648,13 @@
         <v>48</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E160" s="1">
         <v>17</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G160">
         <v>100113</v>
@@ -13666,10 +13666,10 @@
         <v>100113006</v>
       </c>
       <c r="J160" t="s">
+        <v>90</v>
+      </c>
+      <c r="K160" t="s">
         <v>94</v>
-      </c>
-      <c r="K160" t="s">
-        <v>98</v>
       </c>
       <c r="L160">
         <v>359</v>
@@ -13808,13 +13808,13 @@
         <v>48</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E162" s="1">
         <v>22</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G162">
         <v>100113</v>
@@ -13826,7 +13826,7 @@
         <v>100113004</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="K162" s="1">
         <v>1297</v>
@@ -13888,13 +13888,13 @@
         <v>48</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E163" s="1">
         <v>23</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G163">
         <v>100113</v>
@@ -13906,10 +13906,10 @@
         <v>100113005</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L163">
         <v>72</v>
@@ -13968,28 +13968,28 @@
         <v>48</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E164" s="1">
         <v>24</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G164">
         <v>100112</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I164">
         <v>100112020</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L164">
         <v>44</v>
@@ -14226,7 +14226,7 @@
         <v>100110007</v>
       </c>
       <c r="J167" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K167">
         <v>100</v>
@@ -14442,7 +14442,7 @@
         <v>9</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>20</v>
@@ -14469,7 +14469,7 @@
         <v>38</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L170">
         <v>0</v>
@@ -14522,7 +14522,7 @@
         <v>9</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>20</v>
@@ -14602,7 +14602,7 @@
         <v>9</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>20</v>
@@ -14682,7 +14682,7 @@
         <v>9</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>20</v>
@@ -14762,7 +14762,7 @@
         <v>9</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>20</v>
@@ -14842,7 +14842,7 @@
         <v>9</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>20</v>
@@ -14922,7 +14922,7 @@
         <v>9</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>20</v>
@@ -15002,7 +15002,7 @@
         <v>9</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>20</v>
@@ -15029,7 +15029,7 @@
         <v>35</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L177">
         <v>0</v>
@@ -15082,7 +15082,7 @@
         <v>9</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>20</v>
@@ -15162,7 +15162,7 @@
         <v>9</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>20</v>
@@ -15242,7 +15242,7 @@
         <v>9</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>20</v>
@@ -15322,7 +15322,7 @@
         <v>9</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>20</v>
@@ -15402,7 +15402,7 @@
         <v>9</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>20</v>
@@ -15482,34 +15482,34 @@
         <v>9</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G183">
         <v>100112</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I183">
         <v>100112010</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L183">
         <v>0</v>
@@ -15562,7 +15562,7 @@
         <v>9</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>48</v>
@@ -15642,7 +15642,7 @@
         <v>9</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>48</v>
@@ -15654,7 +15654,7 @@
         <v>10</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G185">
         <v>100113</v>
@@ -15722,7 +15722,7 @@
         <v>9</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>48</v>
@@ -15734,7 +15734,7 @@
         <v>18</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G186">
         <v>100113</v>
@@ -15802,7 +15802,7 @@
         <v>9</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>48</v>
@@ -15829,7 +15829,7 @@
         <v>50</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L187">
         <v>0</v>
@@ -15882,19 +15882,19 @@
         <v>9</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E188" s="1">
         <v>17</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G188">
         <v>100113</v>
@@ -15906,10 +15906,10 @@
         <v>100113006</v>
       </c>
       <c r="J188" t="s">
+        <v>90</v>
+      </c>
+      <c r="K188" t="s">
         <v>94</v>
-      </c>
-      <c r="K188" t="s">
-        <v>98</v>
       </c>
       <c r="L188">
         <v>127</v>
@@ -15962,7 +15962,7 @@
         <v>9</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>48</v>
@@ -16042,19 +16042,19 @@
         <v>9</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E190" s="1">
         <v>22</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G190">
         <v>100113</v>
@@ -16066,10 +16066,10 @@
         <v>100113004</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L190">
         <v>934</v>
@@ -16122,19 +16122,19 @@
         <v>9</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E191" s="1">
         <v>23</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G191">
         <v>100113</v>
@@ -16146,10 +16146,10 @@
         <v>100113005</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L191">
         <v>0</v>
@@ -16202,34 +16202,34 @@
         <v>9</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E192" s="1">
         <v>24</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G192">
         <v>100112</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I192">
         <v>100112020</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L192">
         <v>0</v>
@@ -16282,7 +16282,7 @@
         <v>9</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>41</v>
@@ -16309,7 +16309,7 @@
         <v>44</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L193">
         <v>0</v>
@@ -16362,7 +16362,7 @@
         <v>9</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>41</v>
@@ -16442,7 +16442,7 @@
         <v>9</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>41</v>
@@ -16466,7 +16466,7 @@
         <v>100110007</v>
       </c>
       <c r="J195" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K195">
         <v>614</v>
@@ -16522,7 +16522,7 @@
         <v>9</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>41</v>
@@ -16602,7 +16602,7 @@
         <v>9</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>46</v>
@@ -16709,7 +16709,7 @@
         <v>38</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L198">
         <v>0</v>
@@ -17109,7 +17109,7 @@
         <v>35</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L203">
         <v>0</v>
@@ -17189,7 +17189,7 @@
         <v>35</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L204">
         <v>0</v>
@@ -17269,7 +17269,7 @@
         <v>35</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L205">
         <v>0</v>
@@ -17349,7 +17349,7 @@
         <v>40</v>
       </c>
       <c r="K206" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L206">
         <v>0</v>
@@ -17728,28 +17728,28 @@
         <v>48</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E211" s="1">
         <v>1</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G211">
         <v>100112</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I211">
         <v>100112010</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L211">
         <v>0</v>
@@ -17894,7 +17894,7 @@
         <v>10</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G213">
         <v>100113</v>
@@ -17974,7 +17974,7 @@
         <v>18</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G214">
         <v>100113</v>
@@ -18069,7 +18069,7 @@
         <v>50</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L215">
         <v>0</v>
@@ -18128,13 +18128,13 @@
         <v>48</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E216" s="1">
         <v>17</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G216">
         <v>100113</v>
@@ -18146,10 +18146,10 @@
         <v>100113006</v>
       </c>
       <c r="J216" t="s">
+        <v>90</v>
+      </c>
+      <c r="K216" t="s">
         <v>94</v>
-      </c>
-      <c r="K216" t="s">
-        <v>98</v>
       </c>
       <c r="L216">
         <v>0</v>
@@ -18288,13 +18288,13 @@
         <v>48</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E218" s="1">
         <v>22</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G218">
         <v>100113</v>
@@ -18306,10 +18306,10 @@
         <v>100113004</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L218">
         <v>0</v>
@@ -18368,13 +18368,13 @@
         <v>48</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E219" s="1">
         <v>23</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G219">
         <v>100113</v>
@@ -18386,10 +18386,10 @@
         <v>100113005</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K219" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L219">
         <v>0</v>
@@ -18448,28 +18448,28 @@
         <v>48</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E220" s="1">
         <v>24</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G220">
         <v>100112</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I220">
         <v>100112020</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L220">
         <v>0</v>
@@ -18549,7 +18549,7 @@
         <v>44</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L221">
         <v>0</v>
@@ -18629,7 +18629,7 @@
         <v>43</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L222">
         <v>0</v>
@@ -18706,10 +18706,10 @@
         <v>100110007</v>
       </c>
       <c r="J223" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K223" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L223">
         <v>0</v>
@@ -18789,7 +18789,7 @@
         <v>42</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L224">
         <v>0</v>
@@ -18949,7 +18949,7 @@
         <v>38</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L226">
         <v>0</v>
@@ -19189,7 +19189,7 @@
         <v>31</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L229">
         <v>0</v>
@@ -19589,7 +19589,7 @@
         <v>40</v>
       </c>
       <c r="K234" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L234">
         <v>0</v>
@@ -19909,7 +19909,7 @@
         <v>39</v>
       </c>
       <c r="K238" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L238">
         <v>0</v>
@@ -19968,28 +19968,28 @@
         <v>48</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E239" s="1">
         <v>1</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G239">
         <v>100112</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I239">
         <v>100112010</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L239">
         <v>0</v>
@@ -20069,7 +20069,7 @@
         <v>51</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L240">
         <v>0</v>
@@ -20134,7 +20134,7 @@
         <v>10</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G241">
         <v>100113</v>
@@ -20149,7 +20149,7 @@
         <v>51</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L241">
         <v>0</v>
@@ -20214,7 +20214,7 @@
         <v>18</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G242">
         <v>100113</v>
@@ -20229,7 +20229,7 @@
         <v>51</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L242">
         <v>0</v>
@@ -20368,13 +20368,13 @@
         <v>48</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E244" s="1">
         <v>17</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G244">
         <v>100113</v>
@@ -20386,7 +20386,7 @@
         <v>100113006</v>
       </c>
       <c r="J244" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K244">
         <v>26</v>
@@ -20469,7 +20469,7 @@
         <v>49</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L245">
         <v>0</v>
@@ -20528,13 +20528,13 @@
         <v>48</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E246" s="1">
         <v>22</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G246">
         <v>100113</v>
@@ -20546,10 +20546,10 @@
         <v>100113004</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L246">
         <v>0</v>
@@ -20608,13 +20608,13 @@
         <v>48</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E247" s="1">
         <v>23</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G247">
         <v>100113</v>
@@ -20626,10 +20626,10 @@
         <v>100113005</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L247">
         <v>0</v>
@@ -20688,28 +20688,28 @@
         <v>48</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E248" s="1">
         <v>24</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G248">
         <v>100112</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I248">
         <v>100112020</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L248">
         <v>0</v>
@@ -20789,7 +20789,7 @@
         <v>44</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L249">
         <v>0</v>
@@ -20869,7 +20869,7 @@
         <v>43</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L250">
         <v>0</v>
@@ -20946,10 +20946,10 @@
         <v>100110007</v>
       </c>
       <c r="J251" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K251" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L251">
         <v>0</v>
@@ -21189,7 +21189,7 @@
         <v>38</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L254">
         <v>0</v>
@@ -21589,7 +21589,7 @@
         <v>35</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L259">
         <v>0</v>
@@ -21669,7 +21669,7 @@
         <v>35</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L260">
         <v>0</v>
@@ -21749,7 +21749,7 @@
         <v>35</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L261">
         <v>0</v>
@@ -21829,7 +21829,7 @@
         <v>40</v>
       </c>
       <c r="K262" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L262">
         <v>0</v>
@@ -22208,28 +22208,28 @@
         <v>48</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E267" s="1">
         <v>1</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G267">
         <v>100112</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I267">
         <v>100112010</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L267">
         <v>0</v>
@@ -22374,7 +22374,7 @@
         <v>10</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G269">
         <v>100113</v>
@@ -22454,7 +22454,7 @@
         <v>18</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G270">
         <v>100113</v>
@@ -22469,7 +22469,7 @@
         <v>51</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L270">
         <v>0</v>
@@ -22549,7 +22549,7 @@
         <v>50</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L271">
         <v>0</v>
@@ -22608,13 +22608,13 @@
         <v>48</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E272" s="1">
         <v>17</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G272">
         <v>100113</v>
@@ -22626,10 +22626,10 @@
         <v>100113006</v>
       </c>
       <c r="J272" t="s">
+        <v>90</v>
+      </c>
+      <c r="K272" t="s">
         <v>94</v>
-      </c>
-      <c r="K272" t="s">
-        <v>98</v>
       </c>
       <c r="L272">
         <v>0</v>
@@ -22768,13 +22768,13 @@
         <v>48</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E274" s="1">
         <v>22</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G274">
         <v>100113</v>
@@ -22786,10 +22786,10 @@
         <v>100113004</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L274">
         <v>0</v>
@@ -22848,13 +22848,13 @@
         <v>48</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E275" s="1">
         <v>23</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G275">
         <v>100113</v>
@@ -22866,10 +22866,10 @@
         <v>100113005</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L275">
         <v>0</v>
@@ -22928,28 +22928,28 @@
         <v>48</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E276" s="1">
         <v>24</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G276">
         <v>100112</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I276">
         <v>100112020</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L276">
         <v>0</v>
@@ -23029,7 +23029,7 @@
         <v>44</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L277">
         <v>0</v>
@@ -23109,7 +23109,7 @@
         <v>43</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L278">
         <v>0</v>
@@ -23186,7 +23186,7 @@
         <v>100110007</v>
       </c>
       <c r="J279" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K279">
         <v>1042</v>
@@ -23269,7 +23269,7 @@
         <v>42</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L280">
         <v>0</v>
@@ -24448,25 +24448,25 @@
         <v>48</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E295" s="1">
         <v>1</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G295">
         <v>100112</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I295">
         <v>100112010</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K295" s="1">
         <v>1146</v>
@@ -24549,7 +24549,7 @@
         <v>51</v>
       </c>
       <c r="K296" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L296">
         <v>0</v>
@@ -24614,7 +24614,7 @@
         <v>10</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G297">
         <v>100113</v>
@@ -24629,7 +24629,7 @@
         <v>51</v>
       </c>
       <c r="K297" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L297">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>18</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G298">
         <v>100113</v>
@@ -24709,7 +24709,7 @@
         <v>51</v>
       </c>
       <c r="K298" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L298">
         <v>0</v>
@@ -24848,13 +24848,13 @@
         <v>48</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E300" s="1">
         <v>17</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G300">
         <v>100113</v>
@@ -24866,10 +24866,10 @@
         <v>100113006</v>
       </c>
       <c r="J300" t="s">
+        <v>90</v>
+      </c>
+      <c r="K300" t="s">
         <v>94</v>
-      </c>
-      <c r="K300" t="s">
-        <v>98</v>
       </c>
       <c r="L300">
         <v>0</v>
@@ -25008,13 +25008,13 @@
         <v>48</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E302" s="1">
         <v>22</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G302">
         <v>100113</v>
@@ -25026,7 +25026,7 @@
         <v>100113004</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="K302" s="1">
         <v>3259</v>
@@ -25088,13 +25088,13 @@
         <v>48</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E303" s="1">
         <v>23</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G303">
         <v>100113</v>
@@ -25106,7 +25106,7 @@
         <v>100113005</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K303" s="1">
         <v>155</v>
@@ -25168,25 +25168,25 @@
         <v>48</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E304" s="1">
         <v>24</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G304">
         <v>100112</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I304">
         <v>100112020</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K304" s="1">
         <v>199</v>
@@ -25426,7 +25426,7 @@
         <v>100110007</v>
       </c>
       <c r="J307" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K307">
         <v>944</v>
@@ -25657,43 +25657,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>77</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -25701,40 +25701,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K2" s="2">
         <v>44311</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -25760,13 +25760,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Agricultura/4.9.xlsx
+++ b/Agricultura/4.9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F46C54E-FE2F-4113-9B6E-53048E3C52BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8292E8F3-CE16-4BB2-87E3-3869229A23E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B93C76C-544C-4716-8230-5702D06E518B}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B93C76C-544C-4716-8230-5702D06E518B}"/>
   </bookViews>
   <sheets>
     <sheet name="Superficie cosechada" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="101">
   <si>
     <t>2019-2020</t>
   </si>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>2020-2021</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>https://www.ine.cl/estadisticas/economia/agricultura-agroindustria-y-pesca/cosecha</t>
@@ -899,25 +896,25 @@
   <dimension ref="A1:Z309"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="25" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -997,7 +994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>17</v>
       </c>
@@ -1028,8 +1025,8 @@
       <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>94</v>
+      <c r="K2" s="1">
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1077,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17</v>
       </c>
@@ -1157,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
@@ -1237,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
@@ -1317,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1397,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17</v>
       </c>
@@ -1557,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
@@ -1637,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -1717,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -1797,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -1828,8 +1825,8 @@
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>94</v>
+      <c r="K12" s="1">
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1877,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
@@ -1957,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17</v>
       </c>
@@ -1988,8 +1985,8 @@
       <c r="J14" t="s">
         <v>39</v>
       </c>
-      <c r="K14" t="s">
-        <v>94</v>
+      <c r="K14">
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2037,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -2068,8 +2065,8 @@
       <c r="J15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>94</v>
+      <c r="K15" s="1">
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2117,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -2148,8 +2145,8 @@
       <c r="J16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>94</v>
+      <c r="K16" s="1">
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2197,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2214,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17">
         <v>100113</v>
@@ -2228,8 +2225,8 @@
       <c r="J17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>94</v>
+      <c r="K17" s="1">
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2277,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2308,8 +2305,8 @@
       <c r="J18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>94</v>
+      <c r="K18" s="1">
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2357,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2388,8 +2385,8 @@
       <c r="J19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>94</v>
+      <c r="K19" s="1">
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2437,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2468,8 +2465,8 @@
       <c r="J20" t="s">
         <v>90</v>
       </c>
-      <c r="K20" t="s">
-        <v>94</v>
+      <c r="K20">
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2517,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -2548,8 +2545,8 @@
       <c r="J21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>94</v>
+      <c r="K21" s="1">
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2597,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -2608,13 +2605,13 @@
         <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1">
         <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22">
         <v>100113</v>
@@ -2626,10 +2623,10 @@
         <v>100113004</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2677,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -2708,8 +2705,8 @@
       <c r="J23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>94</v>
+      <c r="K23" s="1">
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2757,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
@@ -2788,8 +2785,8 @@
       <c r="J24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>94</v>
+      <c r="K24" s="1">
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2837,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
@@ -2868,8 +2865,8 @@
       <c r="J25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>94</v>
+      <c r="K25" s="1">
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2917,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>17</v>
       </c>
@@ -2948,8 +2945,8 @@
       <c r="J26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>94</v>
+      <c r="K26" s="1">
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2997,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17</v>
       </c>
@@ -3028,8 +3025,8 @@
       <c r="J27" t="s">
         <v>91</v>
       </c>
-      <c r="K27" t="s">
-        <v>94</v>
+      <c r="K27">
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3077,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17</v>
       </c>
@@ -3157,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>17</v>
       </c>
@@ -3237,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3268,8 +3265,8 @@
       <c r="J30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>94</v>
+      <c r="K30" s="1">
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3317,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3397,7 +3394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3477,7 +3474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3508,8 +3505,8 @@
       <c r="J33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>94</v>
+      <c r="K33" s="1">
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3557,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3637,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3717,7 +3714,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3797,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3828,8 +3825,8 @@
       <c r="J37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>94</v>
+      <c r="K37" s="1">
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3877,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3908,8 +3905,8 @@
       <c r="J38" t="s">
         <v>40</v>
       </c>
-      <c r="K38" t="s">
-        <v>94</v>
+      <c r="K38">
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3957,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -4037,7 +4034,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -4117,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -4197,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -4228,8 +4225,8 @@
       <c r="J42" t="s">
         <v>39</v>
       </c>
-      <c r="K42" t="s">
-        <v>94</v>
+      <c r="K42">
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4277,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -4308,8 +4305,8 @@
       <c r="J43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>94</v>
+      <c r="K43" s="1">
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4357,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -4388,8 +4385,8 @@
       <c r="J44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>94</v>
+      <c r="K44" s="1">
+        <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4437,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -4454,7 +4451,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G45">
         <v>100113</v>
@@ -4468,8 +4465,8 @@
       <c r="J45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>94</v>
+      <c r="K45" s="1">
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4517,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -4548,8 +4545,8 @@
       <c r="J46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>94</v>
+      <c r="K46" s="1">
+        <v>0</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4597,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -4628,8 +4625,8 @@
       <c r="J47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>94</v>
+      <c r="K47" s="1">
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -4677,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -4708,8 +4705,8 @@
       <c r="J48" t="s">
         <v>90</v>
       </c>
-      <c r="K48" t="s">
-        <v>94</v>
+      <c r="K48">
+        <v>0</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -4757,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -4788,8 +4785,8 @@
       <c r="J49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>94</v>
+      <c r="K49" s="1">
+        <v>0</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -4837,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -4848,13 +4845,13 @@
         <v>48</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" s="1">
         <v>22</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G50">
         <v>100113</v>
@@ -4866,10 +4863,10 @@
         <v>100113004</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -4917,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -4948,8 +4945,8 @@
       <c r="J51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>94</v>
+      <c r="K51" s="1">
+        <v>0</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -4997,7 +4994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -5028,8 +5025,8 @@
       <c r="J52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>94</v>
+      <c r="K52" s="1">
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -5077,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -5108,8 +5105,8 @@
       <c r="J53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>94</v>
+      <c r="K53" s="1">
+        <v>0</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -5157,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -5188,8 +5185,8 @@
       <c r="J54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>94</v>
+      <c r="K54" s="1">
+        <v>0</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -5237,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -5268,8 +5265,8 @@
       <c r="J55" t="s">
         <v>91</v>
       </c>
-      <c r="K55" t="s">
-        <v>94</v>
+      <c r="K55">
+        <v>0</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -5317,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -5348,8 +5345,8 @@
       <c r="J56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>94</v>
+      <c r="K56" s="1">
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -5397,7 +5394,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -5477,7 +5474,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -5508,8 +5505,8 @@
       <c r="J58" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>94</v>
+      <c r="K58" s="1">
+        <v>0</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -5557,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -5588,8 +5585,8 @@
       <c r="J59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>94</v>
+      <c r="K59" s="1">
+        <v>0</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5637,7 +5634,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -5717,7 +5714,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
@@ -5748,8 +5745,8 @@
       <c r="J61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>94</v>
+      <c r="K61" s="1">
+        <v>0</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -5797,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -5877,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -5957,7 +5954,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5</v>
       </c>
@@ -6037,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5</v>
       </c>
@@ -6068,8 +6065,8 @@
       <c r="J65" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>94</v>
+      <c r="K65" s="1">
+        <v>0</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -6117,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
@@ -6148,8 +6145,8 @@
       <c r="J66" t="s">
         <v>40</v>
       </c>
-      <c r="K66" t="s">
-        <v>94</v>
+      <c r="K66">
+        <v>0</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -6197,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5</v>
       </c>
@@ -6277,7 +6274,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5</v>
       </c>
@@ -6357,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5</v>
       </c>
@@ -6437,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5</v>
       </c>
@@ -6468,8 +6465,8 @@
       <c r="J70" t="s">
         <v>39</v>
       </c>
-      <c r="K70" t="s">
-        <v>94</v>
+      <c r="K70">
+        <v>0</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -6517,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5</v>
       </c>
@@ -6548,8 +6545,8 @@
       <c r="J71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>94</v>
+      <c r="K71" s="1">
+        <v>0</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -6597,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -6628,8 +6625,8 @@
       <c r="J72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>94</v>
+      <c r="K72" s="1">
+        <v>0</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -6677,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5</v>
       </c>
@@ -6694,7 +6691,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G73">
         <v>100113</v>
@@ -6708,8 +6705,8 @@
       <c r="J73" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>94</v>
+      <c r="K73" s="1">
+        <v>0</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -6757,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5</v>
       </c>
@@ -6788,8 +6785,8 @@
       <c r="J74" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>94</v>
+      <c r="K74" s="1">
+        <v>0</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -6837,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5</v>
       </c>
@@ -6868,8 +6865,8 @@
       <c r="J75" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>94</v>
+      <c r="K75" s="1">
+        <v>0</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -6917,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5</v>
       </c>
@@ -6948,8 +6945,8 @@
       <c r="J76" t="s">
         <v>90</v>
       </c>
-      <c r="K76" t="s">
-        <v>94</v>
+      <c r="K76">
+        <v>0</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -6997,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5</v>
       </c>
@@ -7028,8 +7025,8 @@
       <c r="J77" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>94</v>
+      <c r="K77" s="1">
+        <v>0</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -7077,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5</v>
       </c>
@@ -7088,13 +7085,13 @@
         <v>48</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E78" s="1">
         <v>22</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G78">
         <v>100113</v>
@@ -7106,10 +7103,10 @@
         <v>100113004</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -7157,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5</v>
       </c>
@@ -7188,8 +7185,8 @@
       <c r="J79" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>94</v>
+      <c r="K79" s="1">
+        <v>0</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -7237,7 +7234,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5</v>
       </c>
@@ -7268,8 +7265,8 @@
       <c r="J80" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>94</v>
+      <c r="K80" s="1">
+        <v>0</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -7317,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5</v>
       </c>
@@ -7348,8 +7345,8 @@
       <c r="J81" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>94</v>
+      <c r="K81" s="1">
+        <v>0</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -7397,7 +7394,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5</v>
       </c>
@@ -7428,8 +7425,8 @@
       <c r="J82" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>94</v>
+      <c r="K82" s="1">
+        <v>0</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -7477,7 +7474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5</v>
       </c>
@@ -7508,8 +7505,8 @@
       <c r="J83" t="s">
         <v>91</v>
       </c>
-      <c r="K83" t="s">
-        <v>94</v>
+      <c r="K83">
+        <v>0</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -7557,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5</v>
       </c>
@@ -7637,7 +7634,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5</v>
       </c>
@@ -7717,7 +7714,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -7748,8 +7745,8 @@
       <c r="J86" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>94</v>
+      <c r="K86" s="1">
+        <v>0</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -7797,7 +7794,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -7877,7 +7874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -7957,7 +7954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>6</v>
       </c>
@@ -7988,8 +7985,8 @@
       <c r="J89" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>94</v>
+      <c r="K89" s="1">
+        <v>0</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -8037,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6</v>
       </c>
@@ -8117,7 +8114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>6</v>
       </c>
@@ -8197,7 +8194,7 @@
         <v>73400</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>6</v>
       </c>
@@ -8277,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6</v>
       </c>
@@ -8357,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>6</v>
       </c>
@@ -8437,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6</v>
       </c>
@@ -8517,7 +8514,7 @@
         <v>20210</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6</v>
       </c>
@@ -8597,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -8677,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6</v>
       </c>
@@ -8708,8 +8705,8 @@
       <c r="J98" t="s">
         <v>39</v>
       </c>
-      <c r="K98" t="s">
-        <v>94</v>
+      <c r="K98">
+        <v>0</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -8757,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6</v>
       </c>
@@ -8788,8 +8785,8 @@
       <c r="J99" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>94</v>
+      <c r="K99" s="1">
+        <v>0</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -8837,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6</v>
       </c>
@@ -8868,8 +8865,8 @@
       <c r="J100" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K100" s="1" t="s">
-        <v>94</v>
+      <c r="K100" s="1">
+        <v>0</v>
       </c>
       <c r="L100">
         <v>0</v>
@@ -8917,7 +8914,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6</v>
       </c>
@@ -8934,7 +8931,7 @@
         <v>10</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G101">
         <v>100113</v>
@@ -8948,8 +8945,8 @@
       <c r="J101" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>94</v>
+      <c r="K101" s="1">
+        <v>0</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -8997,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>6</v>
       </c>
@@ -9028,8 +9025,8 @@
       <c r="J102" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>94</v>
+      <c r="K102" s="1">
+        <v>0</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -9077,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>6</v>
       </c>
@@ -9157,7 +9154,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>6</v>
       </c>
@@ -9237,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6</v>
       </c>
@@ -9268,8 +9265,8 @@
       <c r="J105" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K105" s="1" t="s">
-        <v>94</v>
+      <c r="K105" s="1">
+        <v>0</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -9317,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>6</v>
       </c>
@@ -9328,13 +9325,13 @@
         <v>48</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E106" s="1">
         <v>22</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G106">
         <v>100113</v>
@@ -9346,10 +9343,10 @@
         <v>100113004</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -9397,7 +9394,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>6</v>
       </c>
@@ -9477,7 +9474,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>6</v>
       </c>
@@ -9557,7 +9554,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>6</v>
       </c>
@@ -9637,7 +9634,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>6</v>
       </c>
@@ -9668,8 +9665,8 @@
       <c r="J110" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K110" s="1" t="s">
-        <v>94</v>
+      <c r="K110" s="1">
+        <v>0</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -9717,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>6</v>
       </c>
@@ -9748,8 +9745,8 @@
       <c r="J111" t="s">
         <v>91</v>
       </c>
-      <c r="K111" t="s">
-        <v>94</v>
+      <c r="K111">
+        <v>0</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -9797,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6</v>
       </c>
@@ -9877,7 +9874,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6</v>
       </c>
@@ -9957,7 +9954,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>7</v>
       </c>
@@ -10037,7 +10034,7 @@
         <v>21760</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>7</v>
       </c>
@@ -10117,7 +10114,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>7</v>
       </c>
@@ -10197,7 +10194,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>7</v>
       </c>
@@ -10277,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>7</v>
       </c>
@@ -10357,7 +10354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7</v>
       </c>
@@ -10437,7 +10434,7 @@
         <v>27830</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>7</v>
       </c>
@@ -10517,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>7</v>
       </c>
@@ -10597,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>7</v>
       </c>
@@ -10677,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>7</v>
       </c>
@@ -10757,7 +10754,7 @@
         <v>43610</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>7</v>
       </c>
@@ -10837,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7</v>
       </c>
@@ -10917,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>7</v>
       </c>
@@ -10948,8 +10945,8 @@
       <c r="J126" t="s">
         <v>39</v>
       </c>
-      <c r="K126" t="s">
-        <v>94</v>
+      <c r="K126">
+        <v>0</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -10997,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7</v>
       </c>
@@ -11028,8 +11025,8 @@
       <c r="J127" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K127" s="1" t="s">
-        <v>94</v>
+      <c r="K127" s="1">
+        <v>0</v>
       </c>
       <c r="L127">
         <v>163</v>
@@ -11077,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7</v>
       </c>
@@ -11108,8 +11105,8 @@
       <c r="J128" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K128" s="1" t="s">
-        <v>94</v>
+      <c r="K128" s="1">
+        <v>0</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -11157,7 +11154,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>7</v>
       </c>
@@ -11174,7 +11171,7 @@
         <v>10</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G129">
         <v>100113</v>
@@ -11188,8 +11185,8 @@
       <c r="J129" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K129" s="1" t="s">
-        <v>94</v>
+      <c r="K129" s="1">
+        <v>0</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -11237,7 +11234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>7</v>
       </c>
@@ -11268,8 +11265,8 @@
       <c r="J130" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K130" s="1" t="s">
-        <v>94</v>
+      <c r="K130" s="1">
+        <v>0</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -11317,7 +11314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>7</v>
       </c>
@@ -11397,7 +11394,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>7</v>
       </c>
@@ -11477,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>7</v>
       </c>
@@ -11508,8 +11505,8 @@
       <c r="J133" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K133" s="1" t="s">
-        <v>94</v>
+      <c r="K133" s="1">
+        <v>0</v>
       </c>
       <c r="L133">
         <v>71</v>
@@ -11557,7 +11554,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7</v>
       </c>
@@ -11568,13 +11565,13 @@
         <v>48</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E134" s="1">
         <v>22</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G134">
         <v>100113</v>
@@ -11586,7 +11583,7 @@
         <v>100113004</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K134" s="1">
         <v>2641</v>
@@ -11637,7 +11634,7 @@
         <v>8130</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>7</v>
       </c>
@@ -11717,7 +11714,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>7</v>
       </c>
@@ -11797,7 +11794,7 @@
         <v>5990</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7</v>
       </c>
@@ -11877,7 +11874,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>7</v>
       </c>
@@ -11957,7 +11954,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>7</v>
       </c>
@@ -11988,8 +11985,8 @@
       <c r="J139" t="s">
         <v>91</v>
       </c>
-      <c r="K139" t="s">
-        <v>94</v>
+      <c r="K139">
+        <v>0</v>
       </c>
       <c r="L139">
         <v>241</v>
@@ -12037,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>7</v>
       </c>
@@ -12117,7 +12114,7 @@
         <v>13570</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>7</v>
       </c>
@@ -12197,7 +12194,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>8</v>
       </c>
@@ -12228,8 +12225,8 @@
       <c r="J142" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K142" s="1" t="s">
-        <v>94</v>
+      <c r="K142" s="1">
+        <v>0</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -12277,7 +12274,7 @@
         <v>4580</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>8</v>
       </c>
@@ -12357,7 +12354,7 @@
         <v>24860</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>8</v>
       </c>
@@ -12437,7 +12434,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>8</v>
       </c>
@@ -12517,7 +12514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>8</v>
       </c>
@@ -12597,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>8</v>
       </c>
@@ -12677,7 +12674,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>8</v>
       </c>
@@ -12757,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>8</v>
       </c>
@@ -12837,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>8</v>
       </c>
@@ -12917,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>8</v>
       </c>
@@ -12997,7 +12994,7 @@
         <v>90070</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>8</v>
       </c>
@@ -13077,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -13157,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8</v>
       </c>
@@ -13237,7 +13234,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>8</v>
       </c>
@@ -13317,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>8</v>
       </c>
@@ -13397,7 +13394,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>8</v>
       </c>
@@ -13414,7 +13411,7 @@
         <v>10</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G157">
         <v>100113</v>
@@ -13428,8 +13425,8 @@
       <c r="J157" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K157" s="1" t="s">
-        <v>94</v>
+      <c r="K157" s="1">
+        <v>0</v>
       </c>
       <c r="L157">
         <v>0</v>
@@ -13477,7 +13474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>8</v>
       </c>
@@ -13557,7 +13554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>8</v>
       </c>
@@ -13637,7 +13634,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>8</v>
       </c>
@@ -13668,8 +13665,8 @@
       <c r="J160" t="s">
         <v>90</v>
       </c>
-      <c r="K160" t="s">
-        <v>94</v>
+      <c r="K160">
+        <v>0</v>
       </c>
       <c r="L160">
         <v>359</v>
@@ -13717,7 +13714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>8</v>
       </c>
@@ -13797,7 +13794,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>8</v>
       </c>
@@ -13808,13 +13805,13 @@
         <v>48</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E162" s="1">
         <v>22</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G162">
         <v>100113</v>
@@ -13826,7 +13823,7 @@
         <v>100113004</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K162" s="1">
         <v>1297</v>
@@ -13877,7 +13874,7 @@
         <v>16070</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>8</v>
       </c>
@@ -13908,8 +13905,8 @@
       <c r="J163" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K163" s="1" t="s">
-        <v>94</v>
+      <c r="K163" s="1">
+        <v>0</v>
       </c>
       <c r="L163">
         <v>72</v>
@@ -13957,7 +13954,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>8</v>
       </c>
@@ -13988,8 +13985,8 @@
       <c r="J164" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K164" s="1" t="s">
-        <v>94</v>
+      <c r="K164" s="1">
+        <v>0</v>
       </c>
       <c r="L164">
         <v>44</v>
@@ -14037,7 +14034,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>8</v>
       </c>
@@ -14117,7 +14114,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>8</v>
       </c>
@@ -14197,7 +14194,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>8</v>
       </c>
@@ -14277,7 +14274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>8</v>
       </c>
@@ -14357,7 +14354,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>8</v>
       </c>
@@ -14437,7 +14434,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>9</v>
       </c>
@@ -14468,8 +14465,8 @@
       <c r="J170" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K170" s="1" t="s">
-        <v>94</v>
+      <c r="K170" s="1">
+        <v>0</v>
       </c>
       <c r="L170">
         <v>0</v>
@@ -14517,7 +14514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>9</v>
       </c>
@@ -14597,7 +14594,7 @@
         <v>47680</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>9</v>
       </c>
@@ -14677,7 +14674,7 @@
         <v>15430</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>9</v>
       </c>
@@ -14757,7 +14754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>9</v>
       </c>
@@ -14837,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>9</v>
       </c>
@@ -14917,7 +14914,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>9</v>
       </c>
@@ -14997,7 +14994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>9</v>
       </c>
@@ -15028,8 +15025,8 @@
       <c r="J177" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K177" s="1" t="s">
-        <v>94</v>
+      <c r="K177" s="1">
+        <v>0</v>
       </c>
       <c r="L177">
         <v>0</v>
@@ -15077,7 +15074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>9</v>
       </c>
@@ -15157,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>9</v>
       </c>
@@ -15237,7 +15234,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>9</v>
       </c>
@@ -15317,7 +15314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>9</v>
       </c>
@@ -15397,7 +15394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>9</v>
       </c>
@@ -15477,7 +15474,7 @@
         <v>5931</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>9</v>
       </c>
@@ -15508,8 +15505,8 @@
       <c r="J183" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K183" s="1" t="s">
-        <v>94</v>
+      <c r="K183" s="1">
+        <v>0</v>
       </c>
       <c r="L183">
         <v>0</v>
@@ -15557,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>9</v>
       </c>
@@ -15637,7 +15634,7 @@
         <v>26340</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>9</v>
       </c>
@@ -15654,7 +15651,7 @@
         <v>10</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G185">
         <v>100113</v>
@@ -15717,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>9</v>
       </c>
@@ -15797,7 +15794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9</v>
       </c>
@@ -15828,8 +15825,8 @@
       <c r="J187" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K187" s="1" t="s">
-        <v>94</v>
+      <c r="K187" s="1">
+        <v>0</v>
       </c>
       <c r="L187">
         <v>0</v>
@@ -15877,7 +15874,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>9</v>
       </c>
@@ -15908,8 +15905,8 @@
       <c r="J188" t="s">
         <v>90</v>
       </c>
-      <c r="K188" t="s">
-        <v>94</v>
+      <c r="K188">
+        <v>0</v>
       </c>
       <c r="L188">
         <v>127</v>
@@ -15957,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9</v>
       </c>
@@ -16037,7 +16034,7 @@
         <v>8280</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9</v>
       </c>
@@ -16048,13 +16045,13 @@
         <v>48</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E190" s="1">
         <v>22</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G190">
         <v>100113</v>
@@ -16066,10 +16063,10 @@
         <v>100113004</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K190" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="K190" s="1">
+        <v>0</v>
       </c>
       <c r="L190">
         <v>934</v>
@@ -16117,7 +16114,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9</v>
       </c>
@@ -16148,8 +16145,8 @@
       <c r="J191" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K191" s="1" t="s">
-        <v>94</v>
+      <c r="K191" s="1">
+        <v>0</v>
       </c>
       <c r="L191">
         <v>0</v>
@@ -16197,7 +16194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>9</v>
       </c>
@@ -16228,8 +16225,8 @@
       <c r="J192" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K192" s="1" t="s">
-        <v>94</v>
+      <c r="K192" s="1">
+        <v>0</v>
       </c>
       <c r="L192">
         <v>0</v>
@@ -16277,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9</v>
       </c>
@@ -16308,8 +16305,8 @@
       <c r="J193" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K193" s="1" t="s">
-        <v>94</v>
+      <c r="K193" s="1">
+        <v>0</v>
       </c>
       <c r="L193">
         <v>0</v>
@@ -16357,7 +16354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9</v>
       </c>
@@ -16437,7 +16434,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>9</v>
       </c>
@@ -16517,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9</v>
       </c>
@@ -16597,7 +16594,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>9</v>
       </c>
@@ -16677,7 +16674,7 @@
         <v>17980</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>10</v>
       </c>
@@ -16708,8 +16705,8 @@
       <c r="J198" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K198" s="1" t="s">
-        <v>94</v>
+      <c r="K198" s="1">
+        <v>0</v>
       </c>
       <c r="L198">
         <v>0</v>
@@ -16757,7 +16754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>10</v>
       </c>
@@ -16837,7 +16834,7 @@
         <v>14040</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10</v>
       </c>
@@ -16917,7 +16914,7 @@
         <v>7490</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>10</v>
       </c>
@@ -16997,7 +16994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10</v>
       </c>
@@ -17077,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>10</v>
       </c>
@@ -17108,8 +17105,8 @@
       <c r="J203" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K203" s="1" t="s">
-        <v>94</v>
+      <c r="K203" s="1">
+        <v>0</v>
       </c>
       <c r="L203">
         <v>0</v>
@@ -17157,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>10</v>
       </c>
@@ -17188,8 +17185,8 @@
       <c r="J204" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K204" s="1" t="s">
-        <v>94</v>
+      <c r="K204" s="1">
+        <v>0</v>
       </c>
       <c r="L204">
         <v>0</v>
@@ -17237,7 +17234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>10</v>
       </c>
@@ -17268,8 +17265,8 @@
       <c r="J205" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K205" s="1" t="s">
-        <v>94</v>
+      <c r="K205" s="1">
+        <v>0</v>
       </c>
       <c r="L205">
         <v>0</v>
@@ -17317,7 +17314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>10</v>
       </c>
@@ -17348,8 +17345,8 @@
       <c r="J206" t="s">
         <v>40</v>
       </c>
-      <c r="K206" t="s">
-        <v>94</v>
+      <c r="K206">
+        <v>0</v>
       </c>
       <c r="L206">
         <v>0</v>
@@ -17397,7 +17394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>10</v>
       </c>
@@ -17477,7 +17474,7 @@
         <v>23680</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>10</v>
       </c>
@@ -17557,7 +17554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>10</v>
       </c>
@@ -17637,7 +17634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>10</v>
       </c>
@@ -17717,7 +17714,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>10</v>
       </c>
@@ -17748,8 +17745,8 @@
       <c r="J211" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K211" s="1" t="s">
-        <v>94</v>
+      <c r="K211" s="1">
+        <v>0</v>
       </c>
       <c r="L211">
         <v>0</v>
@@ -17797,7 +17794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>10</v>
       </c>
@@ -17877,7 +17874,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>10</v>
       </c>
@@ -17894,7 +17891,7 @@
         <v>10</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G213">
         <v>100113</v>
@@ -17957,7 +17954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>10</v>
       </c>
@@ -18037,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>10</v>
       </c>
@@ -18068,8 +18065,8 @@
       <c r="J215" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K215" s="1" t="s">
-        <v>94</v>
+      <c r="K215" s="1">
+        <v>0</v>
       </c>
       <c r="L215">
         <v>0</v>
@@ -18117,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>10</v>
       </c>
@@ -18148,8 +18145,8 @@
       <c r="J216" t="s">
         <v>90</v>
       </c>
-      <c r="K216" t="s">
-        <v>94</v>
+      <c r="K216">
+        <v>0</v>
       </c>
       <c r="L216">
         <v>0</v>
@@ -18197,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>10</v>
       </c>
@@ -18277,7 +18274,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>10</v>
       </c>
@@ -18288,13 +18285,13 @@
         <v>48</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E218" s="1">
         <v>22</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G218">
         <v>100113</v>
@@ -18306,10 +18303,10 @@
         <v>100113004</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K218" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="K218" s="1">
+        <v>0</v>
       </c>
       <c r="L218">
         <v>0</v>
@@ -18357,7 +18354,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>10</v>
       </c>
@@ -18388,8 +18385,8 @@
       <c r="J219" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K219" s="1" t="s">
-        <v>94</v>
+      <c r="K219" s="1">
+        <v>0</v>
       </c>
       <c r="L219">
         <v>0</v>
@@ -18437,7 +18434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>10</v>
       </c>
@@ -18468,8 +18465,8 @@
       <c r="J220" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K220" s="1" t="s">
-        <v>94</v>
+      <c r="K220" s="1">
+        <v>0</v>
       </c>
       <c r="L220">
         <v>0</v>
@@ -18517,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>10</v>
       </c>
@@ -18548,8 +18545,8 @@
       <c r="J221" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K221" s="1" t="s">
-        <v>94</v>
+      <c r="K221" s="1">
+        <v>0</v>
       </c>
       <c r="L221">
         <v>0</v>
@@ -18597,7 +18594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>10</v>
       </c>
@@ -18628,8 +18625,8 @@
       <c r="J222" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K222" s="1" t="s">
-        <v>94</v>
+      <c r="K222" s="1">
+        <v>0</v>
       </c>
       <c r="L222">
         <v>0</v>
@@ -18677,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>10</v>
       </c>
@@ -18708,8 +18705,8 @@
       <c r="J223" t="s">
         <v>91</v>
       </c>
-      <c r="K223" t="s">
-        <v>94</v>
+      <c r="K223">
+        <v>0</v>
       </c>
       <c r="L223">
         <v>0</v>
@@ -18757,7 +18754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>10</v>
       </c>
@@ -18788,8 +18785,8 @@
       <c r="J224" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K224" s="1" t="s">
-        <v>94</v>
+      <c r="K224" s="1">
+        <v>0</v>
       </c>
       <c r="L224">
         <v>0</v>
@@ -18837,7 +18834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>10</v>
       </c>
@@ -18917,7 +18914,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>13</v>
       </c>
@@ -18948,8 +18945,8 @@
       <c r="J226" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K226" s="1" t="s">
-        <v>94</v>
+      <c r="K226" s="1">
+        <v>0</v>
       </c>
       <c r="L226">
         <v>0</v>
@@ -18997,7 +18994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>13</v>
       </c>
@@ -19077,7 +19074,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>13</v>
       </c>
@@ -19157,7 +19154,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>13</v>
       </c>
@@ -19188,8 +19185,8 @@
       <c r="J229" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K229" s="1" t="s">
-        <v>94</v>
+      <c r="K229" s="1">
+        <v>0</v>
       </c>
       <c r="L229">
         <v>0</v>
@@ -19237,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>13</v>
       </c>
@@ -19317,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>13</v>
       </c>
@@ -19397,7 +19394,7 @@
         <v>13630</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>13</v>
       </c>
@@ -19477,7 +19474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>13</v>
       </c>
@@ -19557,7 +19554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>13</v>
       </c>
@@ -19588,8 +19585,8 @@
       <c r="J234" t="s">
         <v>40</v>
       </c>
-      <c r="K234" t="s">
-        <v>94</v>
+      <c r="K234">
+        <v>0</v>
       </c>
       <c r="L234">
         <v>0</v>
@@ -19637,7 +19634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>13</v>
       </c>
@@ -19717,7 +19714,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>13</v>
       </c>
@@ -19797,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>13</v>
       </c>
@@ -19877,7 +19874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>13</v>
       </c>
@@ -19908,8 +19905,8 @@
       <c r="J238" t="s">
         <v>39</v>
       </c>
-      <c r="K238" t="s">
-        <v>94</v>
+      <c r="K238">
+        <v>0</v>
       </c>
       <c r="L238">
         <v>0</v>
@@ -19957,7 +19954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>13</v>
       </c>
@@ -19988,8 +19985,8 @@
       <c r="J239" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K239" s="1" t="s">
-        <v>94</v>
+      <c r="K239" s="1">
+        <v>0</v>
       </c>
       <c r="L239">
         <v>0</v>
@@ -20037,7 +20034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>13</v>
       </c>
@@ -20068,8 +20065,8 @@
       <c r="J240" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K240" s="1" t="s">
-        <v>94</v>
+      <c r="K240" s="1">
+        <v>0</v>
       </c>
       <c r="L240">
         <v>0</v>
@@ -20117,7 +20114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>13</v>
       </c>
@@ -20134,7 +20131,7 @@
         <v>10</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G241">
         <v>100113</v>
@@ -20148,8 +20145,8 @@
       <c r="J241" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K241" s="1" t="s">
-        <v>94</v>
+      <c r="K241" s="1">
+        <v>0</v>
       </c>
       <c r="L241">
         <v>0</v>
@@ -20197,7 +20194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>13</v>
       </c>
@@ -20228,8 +20225,8 @@
       <c r="J242" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K242" s="1" t="s">
-        <v>94</v>
+      <c r="K242" s="1">
+        <v>0</v>
       </c>
       <c r="L242">
         <v>0</v>
@@ -20277,7 +20274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>13</v>
       </c>
@@ -20357,7 +20354,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>13</v>
       </c>
@@ -20437,7 +20434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>13</v>
       </c>
@@ -20468,8 +20465,8 @@
       <c r="J245" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K245" s="1" t="s">
-        <v>94</v>
+      <c r="K245" s="1">
+        <v>0</v>
       </c>
       <c r="L245">
         <v>0</v>
@@ -20517,7 +20514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>13</v>
       </c>
@@ -20528,13 +20525,13 @@
         <v>48</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E246" s="1">
         <v>22</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G246">
         <v>100113</v>
@@ -20546,10 +20543,10 @@
         <v>100113004</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K246" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="K246" s="1">
+        <v>0</v>
       </c>
       <c r="L246">
         <v>0</v>
@@ -20597,7 +20594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>13</v>
       </c>
@@ -20628,8 +20625,8 @@
       <c r="J247" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K247" s="1" t="s">
-        <v>94</v>
+      <c r="K247" s="1">
+        <v>0</v>
       </c>
       <c r="L247">
         <v>0</v>
@@ -20677,7 +20674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>13</v>
       </c>
@@ -20708,8 +20705,8 @@
       <c r="J248" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K248" s="1" t="s">
-        <v>94</v>
+      <c r="K248" s="1">
+        <v>0</v>
       </c>
       <c r="L248">
         <v>0</v>
@@ -20757,7 +20754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>13</v>
       </c>
@@ -20788,8 +20785,8 @@
       <c r="J249" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K249" s="1" t="s">
-        <v>94</v>
+      <c r="K249" s="1">
+        <v>0</v>
       </c>
       <c r="L249">
         <v>0</v>
@@ -20837,7 +20834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>13</v>
       </c>
@@ -20868,8 +20865,8 @@
       <c r="J250" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K250" s="1" t="s">
-        <v>94</v>
+      <c r="K250" s="1">
+        <v>0</v>
       </c>
       <c r="L250">
         <v>0</v>
@@ -20917,7 +20914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>13</v>
       </c>
@@ -20948,8 +20945,8 @@
       <c r="J251" t="s">
         <v>91</v>
       </c>
-      <c r="K251" t="s">
-        <v>94</v>
+      <c r="K251">
+        <v>0</v>
       </c>
       <c r="L251">
         <v>0</v>
@@ -20997,7 +20994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>13</v>
       </c>
@@ -21077,7 +21074,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>13</v>
       </c>
@@ -21157,7 +21154,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>14</v>
       </c>
@@ -21188,8 +21185,8 @@
       <c r="J254" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K254" s="1" t="s">
-        <v>94</v>
+      <c r="K254" s="1">
+        <v>0</v>
       </c>
       <c r="L254">
         <v>0</v>
@@ -21237,7 +21234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>14</v>
       </c>
@@ -21317,7 +21314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>14</v>
       </c>
@@ -21397,7 +21394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>14</v>
       </c>
@@ -21477,7 +21474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>14</v>
       </c>
@@ -21557,7 +21554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>14</v>
       </c>
@@ -21588,8 +21585,8 @@
       <c r="J259" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K259" s="1" t="s">
-        <v>94</v>
+      <c r="K259" s="1">
+        <v>0</v>
       </c>
       <c r="L259">
         <v>0</v>
@@ -21637,7 +21634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>14</v>
       </c>
@@ -21668,8 +21665,8 @@
       <c r="J260" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K260" s="1" t="s">
-        <v>94</v>
+      <c r="K260" s="1">
+        <v>0</v>
       </c>
       <c r="L260">
         <v>0</v>
@@ -21717,7 +21714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>14</v>
       </c>
@@ -21748,8 +21745,8 @@
       <c r="J261" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K261" s="1" t="s">
-        <v>94</v>
+      <c r="K261" s="1">
+        <v>0</v>
       </c>
       <c r="L261">
         <v>0</v>
@@ -21797,7 +21794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>14</v>
       </c>
@@ -21828,8 +21825,8 @@
       <c r="J262" t="s">
         <v>40</v>
       </c>
-      <c r="K262" t="s">
-        <v>94</v>
+      <c r="K262">
+        <v>0</v>
       </c>
       <c r="L262">
         <v>0</v>
@@ -21877,7 +21874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>14</v>
       </c>
@@ -21957,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>14</v>
       </c>
@@ -22037,7 +22034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>14</v>
       </c>
@@ -22117,7 +22114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>14</v>
       </c>
@@ -22197,7 +22194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>14</v>
       </c>
@@ -22228,8 +22225,8 @@
       <c r="J267" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K267" s="1" t="s">
-        <v>94</v>
+      <c r="K267" s="1">
+        <v>0</v>
       </c>
       <c r="L267">
         <v>0</v>
@@ -22277,7 +22274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>14</v>
       </c>
@@ -22357,7 +22354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>14</v>
       </c>
@@ -22374,7 +22371,7 @@
         <v>10</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G269">
         <v>100113</v>
@@ -22437,7 +22434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>14</v>
       </c>
@@ -22468,8 +22465,8 @@
       <c r="J270" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K270" s="1" t="s">
-        <v>94</v>
+      <c r="K270" s="1">
+        <v>0</v>
       </c>
       <c r="L270">
         <v>0</v>
@@ -22517,7 +22514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>14</v>
       </c>
@@ -22548,8 +22545,8 @@
       <c r="J271" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K271" s="1" t="s">
-        <v>94</v>
+      <c r="K271" s="1">
+        <v>0</v>
       </c>
       <c r="L271">
         <v>0</v>
@@ -22597,7 +22594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>14</v>
       </c>
@@ -22628,8 +22625,8 @@
       <c r="J272" t="s">
         <v>90</v>
       </c>
-      <c r="K272" t="s">
-        <v>94</v>
+      <c r="K272">
+        <v>0</v>
       </c>
       <c r="L272">
         <v>0</v>
@@ -22677,7 +22674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>14</v>
       </c>
@@ -22757,7 +22754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>14</v>
       </c>
@@ -22768,13 +22765,13 @@
         <v>48</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E274" s="1">
         <v>22</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G274">
         <v>100113</v>
@@ -22786,10 +22783,10 @@
         <v>100113004</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K274" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="K274" s="1">
+        <v>0</v>
       </c>
       <c r="L274">
         <v>0</v>
@@ -22837,7 +22834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>14</v>
       </c>
@@ -22868,8 +22865,8 @@
       <c r="J275" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K275" s="1" t="s">
-        <v>94</v>
+      <c r="K275" s="1">
+        <v>0</v>
       </c>
       <c r="L275">
         <v>0</v>
@@ -22917,7 +22914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>14</v>
       </c>
@@ -22948,8 +22945,8 @@
       <c r="J276" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K276" s="1" t="s">
-        <v>94</v>
+      <c r="K276" s="1">
+        <v>0</v>
       </c>
       <c r="L276">
         <v>0</v>
@@ -22997,7 +22994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>14</v>
       </c>
@@ -23028,8 +23025,8 @@
       <c r="J277" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K277" s="1" t="s">
-        <v>94</v>
+      <c r="K277" s="1">
+        <v>0</v>
       </c>
       <c r="L277">
         <v>0</v>
@@ -23077,7 +23074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>14</v>
       </c>
@@ -23108,8 +23105,8 @@
       <c r="J278" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K278" s="1" t="s">
-        <v>94</v>
+      <c r="K278" s="1">
+        <v>0</v>
       </c>
       <c r="L278">
         <v>0</v>
@@ -23157,7 +23154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>14</v>
       </c>
@@ -23237,7 +23234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>14</v>
       </c>
@@ -23268,8 +23265,8 @@
       <c r="J280" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K280" s="1" t="s">
-        <v>94</v>
+      <c r="K280" s="1">
+        <v>0</v>
       </c>
       <c r="L280">
         <v>0</v>
@@ -23317,7 +23314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>14</v>
       </c>
@@ -23397,7 +23394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>16</v>
       </c>
@@ -23477,7 +23474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>16</v>
       </c>
@@ -23557,7 +23554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>16</v>
       </c>
@@ -23637,7 +23634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>16</v>
       </c>
@@ -23717,7 +23714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>16</v>
       </c>
@@ -23797,7 +23794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>16</v>
       </c>
@@ -23877,7 +23874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>16</v>
       </c>
@@ -23957,7 +23954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>16</v>
       </c>
@@ -24037,7 +24034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>16</v>
       </c>
@@ -24117,7 +24114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>16</v>
       </c>
@@ -24197,7 +24194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>16</v>
       </c>
@@ -24277,7 +24274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>16</v>
       </c>
@@ -24357,7 +24354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>16</v>
       </c>
@@ -24437,7 +24434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>16</v>
       </c>
@@ -24517,7 +24514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>16</v>
       </c>
@@ -24548,8 +24545,8 @@
       <c r="J296" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K296" s="1" t="s">
-        <v>94</v>
+      <c r="K296" s="1">
+        <v>0</v>
       </c>
       <c r="L296">
         <v>0</v>
@@ -24597,7 +24594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>16</v>
       </c>
@@ -24614,7 +24611,7 @@
         <v>10</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G297">
         <v>100113</v>
@@ -24628,8 +24625,8 @@
       <c r="J297" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K297" s="1" t="s">
-        <v>94</v>
+      <c r="K297" s="1">
+        <v>0</v>
       </c>
       <c r="L297">
         <v>0</v>
@@ -24677,7 +24674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>16</v>
       </c>
@@ -24708,8 +24705,8 @@
       <c r="J298" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K298" s="1" t="s">
-        <v>94</v>
+      <c r="K298" s="1">
+        <v>0</v>
       </c>
       <c r="L298">
         <v>0</v>
@@ -24757,7 +24754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>16</v>
       </c>
@@ -24837,7 +24834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>16</v>
       </c>
@@ -24868,8 +24865,8 @@
       <c r="J300" t="s">
         <v>90</v>
       </c>
-      <c r="K300" t="s">
-        <v>94</v>
+      <c r="K300">
+        <v>0</v>
       </c>
       <c r="L300">
         <v>0</v>
@@ -24917,7 +24914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>16</v>
       </c>
@@ -24997,7 +24994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>16</v>
       </c>
@@ -25008,13 +25005,13 @@
         <v>48</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E302" s="1">
         <v>22</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G302">
         <v>100113</v>
@@ -25026,7 +25023,7 @@
         <v>100113004</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K302" s="1">
         <v>3259</v>
@@ -25077,7 +25074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>16</v>
       </c>
@@ -25157,7 +25154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>16</v>
       </c>
@@ -25237,7 +25234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>16</v>
       </c>
@@ -25317,7 +25314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>16</v>
       </c>
@@ -25397,7 +25394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>16</v>
       </c>
@@ -25477,7 +25474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>16</v>
       </c>
@@ -25557,7 +25554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>16</v>
       </c>
@@ -25653,9 +25650,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -25696,7 +25693,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -25753,20 +25750,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="62.81640625" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
